--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$146</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5297" uniqueCount="440">
   <si>
     <t>Path</t>
   </si>
@@ -634,7 +634,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-practitioner)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
 </t>
   </si>
   <si>
@@ -674,7 +674,7 @@
     <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
   </si>
   <si>
-    <t>BW Lab Order Composition</t>
+    <t>Lab Order Composition</t>
   </si>
   <si>
     <t>./title</t>
@@ -1048,7 +1048,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:entry}
+    <t xml:space="preserve">value:code.text}
 </t>
   </si>
   <si>
@@ -1115,10 +1115,6 @@
     <t>Composition.section.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
-</t>
-  </si>
-  <si>
     <t>Who and/or what authored the section</t>
   </si>
   <si>
@@ -1274,6 +1270,64 @@
     <t>Lab Task</t>
   </si>
   <si>
+    <t>Composition.section.code.id</t>
+  </si>
+  <si>
+    <t>Composition.section.code.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Composition.section.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Composition.section.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>bw-lab-task</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-lab-task)
 </t>
   </si>
@@ -1284,6 +1338,9 @@
     <t>Lab Orders</t>
   </si>
   <si>
+    <t>bw-lab-orders</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-lab-service-request)
 </t>
   </si>
@@ -1291,10 +1348,35 @@
     <t>labResults</t>
   </si>
   <si>
-    <t>Results</t>
+    <t>Lab Results</t>
+  </si>
+  <si>
+    <t>bw-lab-results</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-lab-diagnostic-report)
+</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>bw-patient</t>
+  </si>
+  <si>
+    <t>requester</t>
+  </si>
+  <si>
+    <t>Requester</t>
+  </si>
+  <si>
+    <t>bw-requester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-practitioner)
 </t>
   </si>
 </sst>
@@ -1444,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN98"/>
+  <dimension ref="A1:AN146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1480,7 +1562,7 @@
     <col min="25" max="25" width="73.84375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3576,7 +3658,7 @@
         <v>53</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
@@ -6309,7 +6391,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>43</v>
@@ -7008,13 +7090,13 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
@@ -7099,7 +7181,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7125,13 +7207,13 @@
         <v>326</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7181,7 +7263,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7202,7 +7284,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7213,7 +7295,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7239,13 +7321,13 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7295,7 +7377,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7304,7 +7386,7 @@
         <v>53</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>65</v>
@@ -7313,10 +7395,10 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7327,7 +7409,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7353,16 +7435,16 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7390,11 +7472,11 @@
         <v>134</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7411,7 +7493,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7429,7 +7511,7 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>139</v>
@@ -7443,7 +7525,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7469,16 +7551,16 @@
         <v>143</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7506,11 +7588,11 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="Y53" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7527,7 +7609,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7545,7 +7627,7 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>139</v>
@@ -7559,7 +7641,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7585,13 +7667,13 @@
         <v>326</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7641,7 +7723,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7650,7 +7732,7 @@
         <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>65</v>
@@ -7659,10 +7741,10 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7673,7 +7755,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7684,7 +7766,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
@@ -7699,16 +7781,16 @@
         <v>143</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -7736,11 +7818,11 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
       </c>
@@ -7757,7 +7839,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7766,7 +7848,7 @@
         <v>53</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>65</v>
@@ -7775,7 +7857,7 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>139</v>
@@ -7789,7 +7871,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7800,7 +7882,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>41</v>
@@ -7815,13 +7897,13 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7871,7 +7953,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7880,7 +7962,7 @@
         <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>65</v>
@@ -7892,7 +7974,7 @@
         <v>335</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -7906,14 +7988,14 @@
         <v>330</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>53</v>
@@ -8404,7 +8486,7 @@
         <v>41</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>41</v>
@@ -8473,7 +8555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>346</v>
       </c>
@@ -8489,7 +8571,7 @@
         <v>53</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>41</v>
@@ -8591,7 +8673,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8602,7 +8684,7 @@
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>41</v>
@@ -8614,18 +8696,16 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>354</v>
+        <v>55</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>355</v>
+        <v>233</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>41</v>
       </c>
@@ -8673,50 +8753,50 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>353</v>
+        <v>235</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>206</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>41</v>
@@ -8728,16 +8808,16 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>358</v>
+        <v>237</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>359</v>
+        <v>238</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>360</v>
+        <v>115</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8775,40 +8855,40 @@
         <v>41</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -8819,7 +8899,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8830,7 +8910,7 @@
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>41</v>
@@ -8839,21 +8919,23 @@
         <v>41</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>83</v>
+        <v>409</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
       </c>
@@ -8901,16 +8983,16 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>65</v>
@@ -8919,10 +9001,10 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>367</v>
+        <v>41</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -8933,7 +9015,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8941,7 +9023,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>53</v>
@@ -8953,22 +9035,22 @@
         <v>41</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -8978,7 +9060,7 @@
         <v>41</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>41</v>
@@ -8993,13 +9075,13 @@
         <v>41</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>373</v>
+        <v>41</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>374</v>
+        <v>41</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>41</v>
@@ -9017,7 +9099,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9035,21 +9117,21 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9060,7 +9142,7 @@
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>41</v>
@@ -9072,19 +9154,17 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>380</v>
+        <v>201</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>41</v>
@@ -9109,13 +9189,13 @@
         <v>41</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>41</v>
@@ -9133,13 +9213,13 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>41</v>
@@ -9151,21 +9231,21 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>383</v>
+        <v>203</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>41</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9176,10 +9256,10 @@
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>41</v>
@@ -9188,16 +9268,16 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>406</v>
+        <v>326</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9247,16 +9327,16 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>65</v>
@@ -9265,10 +9345,10 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>389</v>
+        <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9279,7 +9359,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9302,20 +9382,18 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>41</v>
       </c>
@@ -9339,13 +9417,13 @@
         <v>41</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>396</v>
+        <v>41</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>397</v>
+        <v>41</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
@@ -9363,7 +9441,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9372,7 +9450,7 @@
         <v>53</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>65</v>
@@ -9381,10 +9459,10 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>139</v>
+        <v>366</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9395,7 +9473,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9406,7 +9484,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>41</v>
@@ -9418,18 +9496,20 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>41</v>
       </c>
@@ -9453,13 +9533,13 @@
         <v>41</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>41</v>
@@ -9477,16 +9557,16 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>65</v>
@@ -9495,25 +9575,23 @@
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>403</v>
+        <v>139</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>41</v>
       </c>
@@ -9534,16 +9612,20 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>41</v>
       </c>
@@ -9567,13 +9649,13 @@
         <v>41</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>41</v>
@@ -9591,28 +9673,28 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>334</v>
+        <v>65</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>336</v>
+        <v>139</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9621,9 +9703,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9634,10 +9716,10 @@
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>41</v>
@@ -9646,15 +9728,17 @@
         <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>55</v>
+        <v>424</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>233</v>
+        <v>384</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -9703,28 +9787,28 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>235</v>
+        <v>383</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>139</v>
+        <v>388</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>41</v>
+        <v>389</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -9735,18 +9819,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>41</v>
@@ -9758,18 +9842,20 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>237</v>
+        <v>391</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>238</v>
+        <v>392</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>41</v>
       </c>
@@ -9793,13 +9879,13 @@
         <v>41</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>41</v>
+        <v>395</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>41</v>
+        <v>396</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>41</v>
@@ -9817,28 +9903,28 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>239</v>
+        <v>390</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -9849,11 +9935,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9866,26 +9952,24 @@
         <v>41</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>242</v>
+        <v>399</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>243</v>
+        <v>400</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>41</v>
       </c>
@@ -9933,7 +10017,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>244</v>
+        <v>398</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -9942,19 +10026,19 @@
         <v>43</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>96</v>
+        <v>335</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>41</v>
+        <v>402</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -9965,11 +10049,13 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="C75" t="s" s="2">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9988,20 +10074,16 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>41</v>
       </c>
@@ -10010,7 +10092,7 @@
         <v>41</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>408</v>
+        <v>41</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>41</v>
@@ -10049,28 +10131,28 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>212</v>
+        <v>335</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>213</v>
+        <v>336</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10081,7 +10163,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10104,20 +10186,16 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>347</v>
+        <v>233</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>41</v>
       </c>
@@ -10141,13 +10219,13 @@
         <v>41</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>41</v>
@@ -10165,7 +10243,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10177,16 +10255,16 @@
         <v>41</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10197,11 +10275,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10220,18 +10298,18 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>354</v>
+        <v>98</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>355</v>
+        <v>237</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>41</v>
       </c>
@@ -10279,7 +10357,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>353</v>
+        <v>239</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10291,61 +10369,63 @@
         <v>41</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>206</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>41</v>
       </c>
@@ -10393,28 +10473,28 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>357</v>
+        <v>244</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>41</v>
@@ -10425,11 +10505,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10448,18 +10528,20 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>41</v>
       </c>
@@ -10468,7 +10550,7 @@
         <v>41</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>41</v>
+        <v>426</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>41</v>
@@ -10507,7 +10589,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10516,7 +10598,7 @@
         <v>53</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>65</v>
@@ -10525,10 +10607,10 @@
         <v>41</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>367</v>
+        <v>212</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>367</v>
+        <v>213</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
@@ -10537,9 +10619,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10553,7 +10635,7 @@
         <v>53</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>41</v>
@@ -10562,19 +10644,19 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>41</v>
@@ -10599,13 +10681,13 @@
         <v>41</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>41</v>
@@ -10623,7 +10705,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10641,21 +10723,21 @@
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>375</v>
+        <v>151</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10678,20 +10760,16 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>377</v>
+        <v>233</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>41</v>
       </c>
@@ -10715,13 +10793,13 @@
         <v>41</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>41</v>
@@ -10739,7 +10817,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10751,16 +10829,16 @@
         <v>41</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>383</v>
+        <v>139</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>41</v>
@@ -10769,13 +10847,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10785,7 +10863,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>41</v>
@@ -10794,16 +10872,16 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>409</v>
+        <v>98</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>385</v>
+        <v>237</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>386</v>
+        <v>238</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>387</v>
+        <v>115</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10841,19 +10919,19 @@
         <v>41</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>384</v>
+        <v>239</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -10862,19 +10940,19 @@
         <v>43</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>389</v>
+        <v>139</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>390</v>
+        <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>41</v>
@@ -10885,7 +10963,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10896,7 +10974,7 @@
         <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>41</v>
@@ -10905,22 +10983,22 @@
         <v>41</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>143</v>
+        <v>409</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -10945,13 +11023,13 @@
         <v>41</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>396</v>
+        <v>41</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>397</v>
+        <v>41</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>41</v>
@@ -10969,16 +11047,16 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>65</v>
@@ -10987,10 +11065,10 @@
         <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>41</v>
@@ -11001,7 +11079,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11009,10 +11087,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>41</v>
@@ -11021,21 +11099,23 @@
         <v>41</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>41</v>
       </c>
@@ -11044,7 +11124,7 @@
         <v>41</v>
       </c>
       <c r="R84" t="s" s="2">
-        <v>41</v>
+        <v>427</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>41</v>
@@ -11083,16 +11163,16 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>65</v>
@@ -11101,10 +11181,10 @@
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>335</v>
+        <v>423</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>403</v>
+        <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>41</v>
@@ -11115,11 +11195,9 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>41</v>
       </c>
@@ -11128,7 +11206,7 @@
         <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>41</v>
@@ -11140,16 +11218,18 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>41</v>
       </c>
@@ -11197,7 +11277,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11209,27 +11289,27 @@
         <v>41</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>334</v>
+        <v>65</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>336</v>
+        <v>204</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>41</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11252,15 +11332,17 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>55</v>
+        <v>326</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>41</v>
@@ -11309,7 +11391,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11321,16 +11403,16 @@
         <v>41</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>41</v>
@@ -11341,18 +11423,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>41</v>
@@ -11364,16 +11446,16 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>237</v>
+        <v>362</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>238</v>
+        <v>363</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>115</v>
+        <v>364</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11423,28 +11505,28 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>239</v>
+        <v>361</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>139</v>
+        <v>366</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>41</v>
@@ -11455,42 +11537,42 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>242</v>
+        <v>368</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>115</v>
+        <v>370</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>116</v>
+        <v>371</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>41</v>
@@ -11515,13 +11597,13 @@
         <v>41</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>41</v>
@@ -11539,43 +11621,43 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>244</v>
+        <v>367</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>96</v>
+        <v>374</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11594,19 +11676,19 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>41</v>
@@ -11616,7 +11698,7 @@
         <v>41</v>
       </c>
       <c r="R89" t="s" s="2">
-        <v>411</v>
+        <v>41</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>41</v>
@@ -11631,13 +11713,13 @@
         <v>41</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>41</v>
@@ -11655,7 +11737,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11673,10 +11755,10 @@
         <v>41</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>212</v>
+        <v>382</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>41</v>
@@ -11685,9 +11767,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11698,10 +11780,10 @@
         <v>42</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>41</v>
@@ -11710,20 +11792,18 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>143</v>
+        <v>428</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>41</v>
       </c>
@@ -11747,13 +11827,13 @@
         <v>41</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>41</v>
@@ -11771,16 +11851,16 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>65</v>
@@ -11789,10 +11869,10 @@
         <v>41</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>151</v>
+        <v>388</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>152</v>
+        <v>389</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>41</v>
@@ -11803,7 +11883,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11814,7 +11894,7 @@
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>41</v>
@@ -11826,17 +11906,19 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>354</v>
+        <v>143</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N91" t="s" s="2">
-        <v>201</v>
+        <v>394</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>41</v>
@@ -11861,13 +11943,13 @@
         <v>41</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>41</v>
+        <v>395</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>41</v>
+        <v>396</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>41</v>
@@ -11885,16 +11967,16 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>65</v>
@@ -11903,21 +11985,21 @@
         <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>203</v>
+        <v>397</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>206</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11928,7 +12010,7 @@
         <v>42</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>41</v>
@@ -11940,16 +12022,16 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>326</v>
+        <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11999,16 +12081,16 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>65</v>
@@ -12017,10 +12099,10 @@
         <v>41</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>41</v>
@@ -12031,9 +12113,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B93" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="C93" t="s" s="2">
         <v>41</v>
       </c>
@@ -12054,17 +12138,15 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>41</v>
@@ -12113,28 +12195,28 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>41</v>
@@ -12145,7 +12227,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12168,20 +12250,16 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>369</v>
+        <v>233</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>41</v>
       </c>
@@ -12205,13 +12283,13 @@
         <v>41</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>373</v>
+        <v>41</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>374</v>
+        <v>41</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>41</v>
@@ -12229,7 +12307,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>368</v>
+        <v>235</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12241,38 +12319,38 @@
         <v>41</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>375</v>
+        <v>139</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>41</v>
@@ -12284,20 +12362,18 @@
         <v>41</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>377</v>
+        <v>237</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>41</v>
       </c>
@@ -12321,13 +12397,13 @@
         <v>41</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>41</v>
@@ -12345,28 +12421,28 @@
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>376</v>
+        <v>239</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>383</v>
+        <v>139</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>41</v>
@@ -12375,13 +12451,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12391,27 +12467,29 @@
         <v>43</v>
       </c>
       <c r="G96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H96" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H96" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I96" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>412</v>
+        <v>98</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>385</v>
+        <v>242</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>386</v>
+        <v>243</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>41</v>
       </c>
@@ -12459,7 +12537,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>384</v>
+        <v>244</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -12468,19 +12546,19 @@
         <v>43</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>389</v>
+        <v>96</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>390</v>
+        <v>41</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>41</v>
@@ -12491,11 +12569,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12514,19 +12592,19 @@
         <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>41</v>
@@ -12536,7 +12614,7 @@
         <v>41</v>
       </c>
       <c r="R97" t="s" s="2">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>41</v>
@@ -12551,13 +12629,13 @@
         <v>41</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>396</v>
+        <v>41</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>397</v>
+        <v>41</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>41</v>
@@ -12575,7 +12653,7 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -12584,7 +12662,7 @@
         <v>53</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>65</v>
@@ -12593,10 +12671,10 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>398</v>
+        <v>212</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>41</v>
@@ -12605,9 +12683,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12618,10 +12696,10 @@
         <v>42</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>41</v>
@@ -12630,18 +12708,20 @@
         <v>41</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>41</v>
       </c>
@@ -12665,13 +12745,13 @@
         <v>41</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>41</v>
@@ -12689,16 +12769,16 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>65</v>
@@ -12707,20 +12787,5524 @@
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK110" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL98" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN98" t="s" s="2">
+      <c r="AL110" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M121" s="2"/>
+      <c r="N121" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P136" s="2"/>
+      <c r="Q136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" hidden="true">
+      <c r="A137" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M139" s="2"/>
+      <c r="N139" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN146" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN98">
+  <autoFilter ref="A1:AN146">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12730,7 +18314,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI97">
+  <conditionalFormatting sqref="A2:AI145">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -1284,7 +1284,7 @@
     <t>Lab Orders</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-lab-service-request)
+    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-basic-service-request)
 </t>
   </si>
   <si>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -9522,7 +9522,7 @@
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>41</v>
@@ -11128,7 +11128,7 @@
         <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T23:50:16+00:00</t>
+    <t>2021-09-14T04:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T04:26:25+00:00</t>
+    <t>2021-09-16T21:56:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T21:56:02+00:00</t>
+    <t>2022-01-27T20:53:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T20:53:37+00:00</t>
+    <t>2022-01-27T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:03:35+00:00</t>
+    <t>2022-01-27T21:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:13:11+00:00</t>
+    <t>2022-01-27T21:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:19:29+00:00</t>
+    <t>2022-01-27T21:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:25:27+00:00</t>
+    <t>2022-01-27T21:29:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:29:22+00:00</t>
+    <t>2022-01-27T21:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:47:10+00:00</t>
+    <t>2022-01-27T21:52:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:52:37+00:00</t>
+    <t>2022-01-27T21:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T21:52:46+00:00</t>
+    <t>2022-02-05T00:41:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bw-lab-composition.xlsx
+++ b/StructureDefinition-bw-lab-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-05T00:41:59+00:00</t>
+    <t>2022-02-05T01:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
